--- a/Costco-Sanity tests.xlsx
+++ b/Costco-Sanity tests.xlsx
@@ -76,7 +76,7 @@
 .</t>
   </si>
   <si>
-    <t>website language shoulld changed</t>
+    <t>website language shoulld be changable</t>
   </si>
   <si>
     <t>as expected</t>
@@ -194,25 +194,26 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="12.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="12.0"/>
+      <name val="Averta"/>
+    </font>
+    <font>
       <color theme="1"/>
-      <name val="Averta"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -267,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -292,13 +293,16 @@
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -620,13 +624,13 @@
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -652,7 +656,7 @@
       <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -678,7 +682,7 @@
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -700,7 +704,7 @@
       <c r="G9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -722,7 +726,7 @@
       <c r="G10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -748,7 +752,7 @@
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -770,19 +774,19 @@
       <c r="G12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Costco-Sanity tests.xlsx
+++ b/Costco-Sanity tests.xlsx
@@ -58,25 +58,25 @@
     <t>Status</t>
   </si>
   <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>language function</t>
+  </si>
+  <si>
     <t>TC001</t>
   </si>
   <si>
-    <t>language function</t>
-  </si>
-  <si>
-    <t>TS001</t>
-  </si>
-  <si>
     <t>User should be able to change language of the website</t>
   </si>
   <si>
-    <t>1.When at the homepage
-2.And click the luanguage drop down at top-right header section 3. And select a diffrent laguage.
-4,Then verify the page is displayed in selected language
+    <t>When at the homepage
+And click the luanguage drop down at top-right of header section And select a diffrent laguage.
+Then verify the page is displayed in selected language
 .</t>
   </si>
   <si>
-    <t>website language shoulld be changable</t>
+    <t>website language shoulld be changeable</t>
   </si>
   <si>
     <t>as expected</t>
@@ -85,103 +85,103 @@
     <t>pass</t>
   </si>
   <si>
+    <t>TS002</t>
+  </si>
+  <si>
+    <t>Location function</t>
+  </si>
+  <si>
     <t>TC002</t>
   </si>
   <si>
-    <t>Location function</t>
-  </si>
-  <si>
-    <t>TS002</t>
-  </si>
-  <si>
     <t>User should be able to enter city name or zip code to locate a warehouse with desaire options</t>
   </si>
   <si>
-    <t>1. When at the home page
-2.And click Warehouse icon
-         3. And enter a city name or zip code 4. And click "find the warehouse button" 5. Then verify that result page is displayed with map and searched location.</t>
+    <t>When at the home page
+And click Warehouse icon
+         And enter a city name or zip code. And click "find the warehouse button". Then verify that result page is displayed with map and searched location.</t>
   </si>
   <si>
     <t>searched location should be displayed</t>
   </si>
   <si>
+    <t>TS003</t>
+  </si>
+  <si>
+    <t>Customer servies functions</t>
+  </si>
+  <si>
     <t>TC003</t>
   </si>
   <si>
-    <t>Customer servies functions</t>
-  </si>
-  <si>
-    <t>TS003</t>
-  </si>
-  <si>
-    <t>User should have "chat us " or "call us" options when click "Contact us"</t>
-  </si>
-  <si>
-    <t>1. When at the home page
-2. And click "customer servies" at header section
- 3.And click the "Contact us" button 4. Then verify that "char us " and "call us" options are displayed</t>
+    <t>User should have "chat us " and "call us" options when click "Contact us"</t>
+  </si>
+  <si>
+    <t>When at the home page
+And click "customer servies" at header section.
+And click the "Contact us" button. Then verify that "char us " and "call us" options are displayed</t>
   </si>
   <si>
     <t xml:space="preserve">user should see both options </t>
   </si>
   <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>User see 10 diffrent servies options with its name and icon</t>
+  </si>
+  <si>
+    <t>When at the home page
+And click "customer servies" at header section
+ Then verify that all 10 options are dispyed with name and icon</t>
+  </si>
+  <si>
+    <t>all the servies options should be showing</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>"Featured Artivles" and "trending Articles" should be displayed</t>
+  </si>
+  <si>
+    <t>When at the home page
+And click "customer servies" at header section.
+Then verify "Featured Artivles" and "trending articles" are displayed with content</t>
+  </si>
+  <si>
+    <t>articles contents should displayed</t>
+  </si>
+  <si>
     <t>TS004</t>
   </si>
   <si>
-    <t>User see 10 diffrent servies options with its name and icon</t>
-  </si>
-  <si>
-    <t>1. When at the home page
-2. And click "customer servies" at header section
- 3. Then verify that all 10 options are dispyed with name and icon</t>
-  </si>
-  <si>
-    <t>all the servies options should be showing</t>
-  </si>
-  <si>
-    <t>TS005</t>
-  </si>
-  <si>
-    <t>"Featured Artivles" and "trending articles" should be displayed</t>
-  </si>
-  <si>
-    <t>1. When at the home page
-2. And click "customer servies" at header section
- 3. Then verify "Featured Artivles" and "trending articles" are displayed with content</t>
-  </si>
-  <si>
-    <t>articles contents should displayed</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
     <t>Feedback selections</t>
   </si>
   <si>
-    <t>TS006</t>
-  </si>
-  <si>
-    <t>User should see a pop up with "Website" and "Warehouse" options when feecback button is cilck</t>
-  </si>
-  <si>
-    <t>1. When at the home page
-2. And click "feedback" nutton at right side
- 3. Then verify "Website" and "Warehouse" are displayed within a pop up</t>
-  </si>
-  <si>
-    <t>user should see 2 options at feedback</t>
-  </si>
-  <si>
-    <t>TS007</t>
-  </si>
-  <si>
-    <t>both options in Feedback should open new window for user to pursuit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. When click the "feedback" button
-2. And click "Website" option from pop up
- 3. Then verify that new window is opened. 4. And click "Warehouse" option from pop up. 5. Then verify that new window is opened </t>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>User should see a pop up with "Website" and "Warehouse" options when click the feecback button</t>
+  </si>
+  <si>
+    <t>When at the home page.
+And click "feedback" nutton at right side.
+Then verify "Website" and "Warehouse" are displayed within a pop up.</t>
+  </si>
+  <si>
+    <t>user should see 2 options at feedback pop up</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>Both options in Feedback should open new window for user to pursuit</t>
+  </si>
+  <si>
+    <t>When click the "feedback" button.
+And click "Website" option from pop up.
+Then verify that new window is opened. 4. And click "Warehouse" option from pop up. Then verify that new window is opened.</t>
   </si>
   <si>
     <t>both options should open new window for user</t>
@@ -291,10 +291,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,7 +523,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="16.71"/>
     <col customWidth="1" min="2" max="2" width="18.43"/>
-    <col customWidth="1" min="5" max="5" width="32.86"/>
+    <col customWidth="1" min="5" max="5" width="34.57"/>
+    <col customWidth="1" min="6" max="6" width="19.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -612,22 +613,22 @@
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -638,22 +639,22 @@
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -664,7 +665,7 @@
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -676,10 +677,10 @@
       <c r="E8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -687,21 +688,21 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
@@ -709,8 +710,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="7" t="s">
         <v>39</v>
       </c>
@@ -720,10 +721,10 @@
       <c r="E10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -734,7 +735,7 @@
       <c r="A11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -749,7 +750,7 @@
       <c r="F11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="10" t="s">
@@ -757,8 +758,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="7" t="s">
         <v>49</v>
       </c>
@@ -768,10 +769,10 @@
       <c r="E12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="10" t="s">
